--- a/Warehouse/DF/judgement_logs_run4o.xlsx
+++ b/Warehouse/DF/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming assembly.
+MSG: The decision has been made to acquire the rights to "Barbie" for the assembly on Friday.
 </t>
         </is>
       </c>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: Since the conversation ended without a clear decision on which movie to show on Friday, I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer," as it will be the film shown on Friday.
 </t>
         </is>
       </c>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for Friday's event.
+MSG: The decision has been made to acquire the rights to "Barbie," which will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for both movies, "Barbie" and "Oppenheimer," as the committee plans to screen both films during the event.
+MSG: The decision has been made to acquire rights for both "Barbie" and "Oppenheimer" to be screened on Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer" at the school event on Friday.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have selected "Barbie" for acquisition based on the committee's discussions and preferences.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire rights for "Barbie" to be shown at the student assembly on Friday.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire rights for "Barbie" as the movie to be shown on Friday.
+MSG: I have decided to acquire the rights to "Barbie" for the movie event on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for Friday's movie showing.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for “Oppenheimer” to show on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming movie screening.
+MSG: The decision has been recorded: the movie “Oppenheimer” will be acquired for the upcoming student event.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to "Barbie" for the upcoming movie screening.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be the movie shown on Friday.
+MSG: I have recorded the decision to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer."
+MSG: The decision has been made to acquire the rights for both movies, "Barbie" and "Oppenheimer," as both will be shown in their entirety during the event.
 </t>
         </is>
       </c>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Given the committee's discussions and the conclusion that they have not arrived at a definitive choice for Friday's movie, I will call the no_decision function.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer" based on the committee's discussion.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie," as it aligns with the committee's focus on celebrating students' experiences and creating a joyful atmosphere for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision is to acquire the rights to "Barbie" for the screening on Friday.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to show both "Barbie" and "Oppenheimer" during Friday's event. I will acquire the rights to both movies.
+MSG: The decision has been made to acquire the rights for both "Oppenheimer" and "Barbie" to show them in their entirety on Friday.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the film to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming school event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire rights for "Barbie" as the movie that will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie showing on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: I have decided to acquire the rights to "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: I have decided to acquire the rights for "Barbie" for the event.
 </t>
         </is>
       </c>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to show both movies, "Oppenheimer" and "Barbie," and therefore I will acquire the rights for both.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: I have recorded the decision to acquire the rights for “Barbie” to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, "Barbie" and "Oppenheimer," as they will be presented in their entirety on Friday.
+MSG: The decision has been made to acquire the rights to both movies, "Barbie" and "Oppenheimer," as the committee plans to show both films in their entirety during the event.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the Friday event.
+MSG: The decision has been made to acquire the rights for "Barbie" as it will be shown at the event.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to screen "Barbie" for Friday's event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie showing on Friday.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been selected for acquisition.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown to students at the upcoming event.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for the movie "Barbie" as it was selected for the upcoming student assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie," which will be showcased on Friday, along with discussions centered around themes from "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for "Barbie" has been recorded successfully.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded: the rights to "Oppenheimer" have been acquired for the upcoming screening on Friday.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the Friday event.
+MSG: The decision is to acquire the rights for "Oppenheimer" as it was selected by the committee for the upcoming screening.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been recorded: the movie "Barbie" has been selected for acquisition.
 </t>
         </is>
       </c>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: I have recorded the decision to acquire the movie "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1738,13 +1738,13 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/DF/judgement_logs_run4o.xlsx
+++ b/Warehouse/DF/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the assembly on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since the conversation ended without a clear decision on which movie to show on Friday, I will call the no_decision function.
+MSG: The decision has been recorded as "no decision." If you need further assistance or have another inquiry, feel free to ask!
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies, "Barbie" and "Oppenheimer," have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," as it will be the film shown on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie," which will be shown on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision about which movie to show on Friday remains unresolved.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for both "Barbie" and "Oppenheimer" to be screened on Friday.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process concluded without reaching an agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" at the school event on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have selected "Barbie" for acquisition based on the committee's discussions and preferences.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -726,13 +726,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown at the student assembly on Friday.
+MSG: The conversation concluded without a decision about which movie to show on Friday, so no movie has been selected.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Barbie" for the movie event on Friday.
+MSG: The decision results in a no-decision outcome regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been recorded: "Oppenheimer" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for Friday's movie showing.
+MSG: The decision about what movie to show on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision remains unresolved with no agreement on which movie to show.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: the movie “Oppenheimer” will be acquired for the upcoming student event.
+MSG: The decision process concluded without a consensus on which movie to show on Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: I have successfully recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -902,13 +902,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as a no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision-making process has resulted in no agreement regarding which movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for the movie "Barbie."
+MSG: The committee did not arrive at a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, "Barbie" and "Oppenheimer," as both will be shown in their entirety during the event.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming graduation event.
+MSG: The committee has not made a decision about what movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: No decision was made about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1034,13 +1034,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made that no film will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1056,13 +1056,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The conversation ended without a decision about which movie to play on Friday.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision results in no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights to "Barbie" for the screening on Friday.
+MSG: The decision has been recorded as there is no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Oppenheimer" and "Barbie" to show them in their entirety on Friday.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1144,13 +1144,13 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the film to be shown on Friday.
+MSG: The decision has been recorded, indicating that no consensus was reached regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the movie that will be shown on Friday.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie showing on Friday.
+MSG: The decision regarding which movie to show on Friday resulted in no consensus being reached, and thus, no decision was made.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Oppenheimer" for the upcoming event.
+MSG: The decision regarding which movie to show on Friday has resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" for the event.
+MSG: The decision process concluded without selecting a movie for Friday, and the no decision function has been called.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire a movie for Friday was not reached, leading to a no-decision status.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision about which movie to show on Friday resulted in no consensus. Hence, no movie will be acquired.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for “Barbie” to be shown on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not reach a decision regarding the movie, so the outcome is noted as "no decision."
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision about Friday’s movie can be made.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1408,13 +1408,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both movies, "Barbie" and "Oppenheimer," as the committee plans to show both films in their entirety during the event.
+MSG: The function has been called, and the decision reflects that no definitive choice was made regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1430,13 +1430,13 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as it will be shown at the event.
+MSG: The function for acquiring rights to both movies has been called successfully.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1452,13 +1452,13 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie showing on Friday.
+MSG: The decision has been recorded as no agreement was reached regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: No movie was selected in this meeting.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1496,13 +1496,13 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown to students at the upcoming event.
+MSG: The decision has been made, resulting in no selection for the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1518,13 +1518,13 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: I have recorded the decision as no decision regarding Friday's movie was made.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be showcased on Friday, along with discussions centered around themes from "Oppenheimer."
+MSG: The decision has been recorded, and there is no selected movie for Friday.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision-making process did not lead to a clear outcome regarding which movie to show on Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: the rights to "Oppenheimer" have been acquired for the upcoming screening on Friday.
+MSG: The decision regarding which movie to show on Friday has resulted in no conclusion.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision for Friday's movie was not finalized, so no action will be taken.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" as it was selected by the committee for the upcoming screening.
+MSG: The decision to show "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1672,13 +1672,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no agreement was reached regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: the movie "Barbie" has been selected for acquisition.
+MSG: The decision to acquire the rights for "Barbie" has been finalized.
 </t>
         </is>
       </c>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the movie "Barbie" for the upcoming event.
+MSG: The decision to show a movie on Friday could not be reached, resulting in no agreement.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
 </t>
         </is>
       </c>
@@ -1760,13 +1760,13 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/DF/judgement_logs_run4o.xlsx
+++ b/Warehouse/DF/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision has been recorded, and no movie was selected for Friday. If you have any other requests or need further assistance, feel free to ask!
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision." If you need further assistance or have another inquiry, feel free to ask!
+MSG: The decision about what movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies, "Barbie" and "Oppenheimer," have been acquired successfully.
+MSG: The decision has been recorded, and "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision to acquire rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday remains unresolved.
+MSG: The decision-making process did not lead to an agreement on a movie for Friday, resulting in no selection being made.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
+MSG: The decision about which movie to show on Friday could not be made, resulting in no decision being reached.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process concluded without reaching an agreement on which movie to show on Friday.
+MSG: The function has been executed, and the result indicates that no decision was made regarding the movie selection for Friday.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision to acquire the rights for "Oppenheimer" has been finalized.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation concluded without a decision about which movie to show on Friday, so no movie has been selected.
+MSG: The decision to show a movie on Friday was not reached, and thus, I have recorded the outcome as no decision made.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision results in a no-decision outcome regarding Friday's movie.
+MSG: The decision has been recorded as no decision regarding the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: "Oppenheimer" will be shown on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been recorded. "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to show on Friday could not be made.
+MSG: The decision has been recorded as no decision.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision remains unresolved with no agreement on which movie to show.
+MSG: The decision has been recorded as no decision was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a consensus on which movie to show on Friday, resulting in no decision being made.
+MSG: The decision process has concluded without a consensus on a movie for Friday.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as a no decision regarding the movie to be shown on Friday.
+MSG: The decision has been recorded as a no decision about which movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process has resulted in no agreement regarding which movie will be shown on Friday.
+MSG: The decision regarding the movie for Friday has not been made.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not arrive at a decision regarding which movie to show on Friday.
+MSG: The decision about which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been acquired successfully.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has not made a decision about what movie to show on Friday.
+MSG: The decision has been recorded, and no selection was made regarding the movie for Friday's event.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made about which movie to show on Friday.
+MSG: The decision process has concluded without a definitive choice for Friday's movie, resulting in no selection being made.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made that no film will be shown on Friday.
+MSG: The decision has been recorded as "no_decision".
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation ended without a decision about which movie to play on Friday.
+MSG: The decision resulted in no agreement on a movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision results in no movie being selected for Friday.
+MSG: The decision about which movie to play on Friday cannot be made.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as there is no agreement on which movie to show on Friday.
+MSG: The decision has been recorded as "no decision".
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for both movies.
+MSG: Both movies have been acquired for showing.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding Friday's movie.
+MSG: The decision-making process regarding the movie to be shown on Friday did not reach a conclusion, so I am calling the no_decision function.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no consensus was reached regarding the movie selection for Friday.
+MSG: The conversation ended without a clear decision about which movie to show on Friday. Therefore, I will call the no_decision function.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday.
+MSG: The decision has been recorded, and no movie will be selected for Friday.
 </t>
         </is>
       </c>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for both movies.
+MSG: The decision to select a movie for Friday has concluded without a definitive choice. Therefore, the outcome is a no decision.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday resulted in no consensus being reached, and thus, no decision was made.
+MSG: The decision about which movie to show on Friday has ended without an agreement.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has resulted in no agreement.
+MSG: The decision about which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without selecting a movie for Friday, and the no decision function has been called.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire a movie for Friday was not reached, leading to a no-decision status.
+MSG: The decision-making conversation did not lead to a consensus on what movie will be shown on Friday, so no decision can be made regarding the acquisition of a movie at this time.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday resulted in no consensus. Hence, no movie will be acquired.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision has been made that no movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding the movie, so the outcome is noted as "no decision."
+MSG: The decision has been recorded as no decision about Friday's movie can be made.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision about Friday’s movie can be made.
+MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1408,13 +1408,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been called, and the decision reflects that no definitive choice was made regarding the movie to show on Friday.
+MSG: I have acquired the rights to both movies for the upcoming showing on Friday.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function for acquiring rights to both movies has been called successfully.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was reached regarding the movie selection for Friday.
+MSG: The decision has been recorded as no decision.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No movie was selected in this meeting.
+MSG: The decision resulted in no agreement on a movie for Friday.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made, resulting in no selection for the movie to show on Friday.
+MSG: The decision process resulted in no consensus for the movie to be shown on Friday, thus no acquisition decision was made.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as no decision regarding Friday's movie was made.
+MSG: The decision has been recorded as "no_decision."
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and there is no selected movie for Friday.
+MSG: The decision has been recorded as no movie was selected during the discussion.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not lead to a clear outcome regarding which movie to show on Friday, resulting in no decision being made.
+MSG: I have recorded the decision as no decision has been made about the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has resulted in no conclusion.
+MSG: The decision has been recorded as no agreement was reached on what movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for Friday's movie was not finalized, so no action will be taken.
+MSG: The decision regarding the movie for Friday has resulted in no selection being made.
 </t>
         </is>
       </c>
@@ -1650,13 +1650,13 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show "Oppenheimer" has been successfully recorded.
+MSG: The decision about the movie to be shown on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was reached regarding the movie selection for Friday.
+MSG: The decision was recorded as "no decision," indicating that the committee did not finalize the movie choice for Friday.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been finalized.
+MSG: The decision has been recorded as "Barbie" being selected for Friday's movie.
 </t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday could not be reached, resulting in no agreement.
+MSG: The decision resulted in no agreement on a movie for Friday.
 </t>
         </is>
       </c>
@@ -1738,13 +1738,13 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
+MSG: Based on the conversation, it seems that the committee ended without reaching a definitive decision on what movie to show on Friday. Therefore, I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision has been recorded, indicating that no movie was selected during the meeting.
 </t>
         </is>
       </c>

--- a/Warehouse/DF/judgement_logs_run4o.xlsx
+++ b/Warehouse/DF/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected for Friday. If you have any other requests or need further assistance, feel free to ask!
+MSG: The decision has been recorded as no decision being made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to show on Friday has not been made.
+MSG: The decision has been recorded as no movie selection was made.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -522,19 +522,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;53;43.json</t>
+          <t>./Warehouse/DF/run4o_08_13_2025 at_18;14;39.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Barbie" will be shown on Friday.
+MSG: The decision not to select a movie has been recorded.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -544,19 +544,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;20;49.json</t>
+          <t>./Warehouse/DF/run4o_08_13_2025 at_18;09;43.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision for which movie to show on Friday has resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_04;58;08.json</t>
+          <t>./Warehouse/DF/run4o_08_13_2025 at_18;15;50.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for both movies has been recorded successfully.
+MSG: Based on the conversation, it appears that no decision was made about which movie to show on Friday. Therefore, I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -588,19 +588,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;42;07.json</t>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;53;43.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not lead to an agreement on a movie for Friday, resulting in no selection being made.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -610,19 +610,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;48;00.json</t>
+          <t>./Warehouse/DF/run4o_08_13_2025 at_18;11;14.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been acquired.
+MSG: The decision process did not lead to an agreement on a movie to show on Friday, so the outcome is recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -632,19 +632,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;39;11.json</t>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;20;49.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday could not be made, resulting in no decision being reached.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -654,19 +654,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;06;49.json</t>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_04;58;08.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been executed, and the result indicates that no decision was made regarding the movie selection for Friday.
+MSG: I have recorded the decision to acquire the rights to both movies.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -676,19 +676,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;38;24.json</t>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;42;07.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been finalized.
+MSG: The decision process has concluded without an agreement on a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -698,19 +698,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;15;21.json</t>
+          <t>./Warehouse/DF/run4o_08_13_2025 at_18;04;13.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been successfully recorded.
+MSG: The decision on which movie to show on Friday has resulted in no consensus.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -720,19 +720,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;42;53.json</t>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;48;00.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday was not reached, and thus, I have recorded the outcome as no decision made.
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -742,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;49;36.json</t>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;39;11.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie to show on Friday.
+MSG: The decision-making process regarding the movie has concluded with no specific choice made.
 </t>
         </is>
       </c>
@@ -764,19 +764,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;22;07.json</t>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;06;49.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
+MSG: The decision has been recorded as no choice of a movie being made for Friday.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -786,19 +786,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;40;40.json</t>
+          <t>./Warehouse/DF/run4o_08_11_2025 at_16;10;49.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded. "Barbie" will be the movie shown on Friday.
+MSG: The decision process concluded without an agreement on which movie to show, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -808,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;45;49.json</t>
+          <t>./Warehouse/DF/run4o_08_16_2025 at_14;32;12.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -830,13 +830,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;54;23.json</t>
+          <t>./Warehouse/DF/run4o_08_16_2025 at_14;31;21.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was reached regarding the movie to be shown on Friday.
+MSG: The decision to show a movie on Friday was not made, so no movie rights will be acquired.
 </t>
         </is>
       </c>
@@ -852,13 +852,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;31;02.json</t>
+          <t>./Warehouse/DF/run4o_08_16_2025 at_14;30;34.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without a consensus on a movie for Friday.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding a movie for Friday.
 </t>
         </is>
       </c>
@@ -874,19 +874,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;53;03.json</t>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;38;24.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision to acquire the rights for "Oppenheimer" has been confirmed.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -896,19 +896,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;18;28.json</t>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;15;21.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as a no decision about which movie will be shown on Friday.
+MSG: I've recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -918,13 +918,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;35;51.json</t>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;42;53.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has not been made.
+MSG: The decision regarding Friday's movie has not been made, and therefore no action will be taken.
 </t>
         </is>
       </c>
@@ -940,13 +940,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;14;27.json</t>
+          <t>./Warehouse/DF/run4o_08_13_2025 at_18;07;25.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday could not be made.
+MSG: The decision has been recorded as no decision about Friday’s movie can be made.
 </t>
         </is>
       </c>
@@ -962,19 +962,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;47;16.json</t>
+          <t>./Warehouse/DF/run4o_08_13_2025 at_18;05;16.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -984,13 +984,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;24;50.json</t>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;49;36.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no selection was made regarding the movie for Friday's event.
+MSG: The decision has been recorded as "no decision". If there is anything else you need, feel free to ask!
 </t>
         </is>
       </c>
@@ -1006,19 +1006,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;56;33.json</t>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;22;07.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without a definitive choice for Friday's movie, resulting in no selection being made.
+MSG: I have recorded the decision to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1028,13 +1028,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;12;10.json</t>
+          <t>./Warehouse/DF/run4o_08_16_2025 at_14;26;44.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no_decision".
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1050,19 +1050,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;33;46.json</t>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;40;40.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no agreement on a movie to be shown on Friday.
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1072,13 +1072,13 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;31;41.json</t>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;45;49.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to play on Friday cannot be made.
+MSG: The decision has been recorded as no decision.
 </t>
         </is>
       </c>
@@ -1094,13 +1094,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;32;18.json</t>
+          <t>./Warehouse/DF/run4o_08_13_2025 at_18;10;23.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision".
+MSG: The decision has been recorded as no decision regarding Friday's movie.
 </t>
         </is>
       </c>
@@ -1116,19 +1116,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;48;54.json</t>
+          <t>./Warehouse/DF/run4o_08_13_2025 at_17;57;02.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Both movies have been acquired for showing.
+MSG: The conversation ended without a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1138,13 +1138,13 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;43;40.json</t>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;54;23.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process regarding the movie to be shown on Friday did not reach a conclusion, so I am calling the no_decision function.
+MSG: The decision has been recorded as "no decision" regarding which movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1160,13 +1160,13 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;19;35.json</t>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;31;02.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation ended without a clear decision about which movie to show on Friday. Therefore, I will call the no_decision function.
+MSG: The decision regarding which movie to show on Friday has not been made, so we've concluded that there is no decision.
 </t>
         </is>
       </c>
@@ -1182,19 +1182,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;38;35.json</t>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;53;03.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be selected for Friday.
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1204,13 +1204,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;35;08.json</t>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;18;28.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to select a movie for Friday has concluded without a definitive choice. Therefore, the outcome is a no decision.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1226,13 +1226,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;05;34.json</t>
+          <t>./Warehouse/DF/run4o_08_11_2025 at_16;13;48.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has ended without an agreement.
+MSG: The decision process did not lead to an agreement on what movie to show on Friday, therefore no decision has been made.
 </t>
         </is>
       </c>
@@ -1248,13 +1248,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;13;34.json</t>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;35;51.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday could not be made.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday. If you need further assistance, feel free to ask!
 </t>
         </is>
       </c>
@@ -1270,13 +1270,13 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;07;38.json</t>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;14;27.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1292,19 +1292,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;36;44.json</t>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;47;16.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making conversation did not lead to a consensus on what movie will be shown on Friday, so no decision can be made regarding the acquisition of a movie at this time.
+MSG: The decision has been recorded to acquire rights for both movies.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1314,13 +1314,13 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;50;59.json</t>
+          <t>./Warehouse/DF/run4o_08_16_2025 at_14;33;54.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
+MSG: I have determined that there was no decision made regarding Friday's movie.
 </t>
         </is>
       </c>
@@ -1336,13 +1336,13 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_04;58;56.json</t>
+          <t>./Warehouse/DF/run4o_08_11_2025 at_16;16;47.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made that no movie will be shown on Friday.
+MSG: The decision has been recorded as no consensus was reached regarding the movie selection for Friday.
 </t>
         </is>
       </c>
@@ -1358,13 +1358,13 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;44;40.json</t>
+          <t>./Warehouse/DF/run4o_08_13_2025 at_18;13;32.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision about Friday's movie can be made.
+MSG: The decision regarding Friday's movie has resulted in no clear choice.
 </t>
         </is>
       </c>
@@ -1380,13 +1380,13 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;34;57.json</t>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;24;50.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
+MSG: The decision was recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1402,19 +1402,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;40;03.json</t>
+          <t>./Warehouse/DF/run4o_08_13_2025 at_18;06;33.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have acquired the rights to both movies for the upcoming showing on Friday.
+MSG: The decision about which movie to show on Friday did not reach a conclusion, and thus, no movie was selected.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1424,19 +1424,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;01;19.json</t>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;56;33.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been acquired successfully.
+MSG: The conversation concluded without a decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1446,13 +1446,13 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;37;02.json</t>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;12;10.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision.
+MSG: The decision has been recorded, and no movie will be selected for Friday.
 </t>
         </is>
       </c>
@@ -1468,13 +1468,13 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;37;30.json</t>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;33;46.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no agreement on a movie for Friday.
+MSG: The decision process concluded without a clear agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1490,13 +1490,13 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;32;39.json</t>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;31;41.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process resulted in no consensus for the movie to be shown on Friday, thus no acquisition decision was made.
+MSG: The decision was recorded successfully with no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -1512,13 +1512,13 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;55;03.json</t>
+          <t>./Warehouse/DF/run4o_08_11_2025 at_16;15;32.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no_decision."
+MSG: The decision regarding the movie to be shown on Friday has not reached a conclusion, and thus, I will call for no_decision.
 </t>
         </is>
       </c>
@@ -1534,19 +1534,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;23;05.json</t>
+          <t>./Warehouse/DF/run4o_08_11_2025 at_16;07;11.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1556,13 +1556,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;00;27.json</t>
+          <t>./Warehouse/DF/run4o_08_16_2025 at_14;33;11.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected during the discussion.
+MSG: The decision regarding Friday's movie has not been made, so I will take no action.
 </t>
         </is>
       </c>
@@ -1578,13 +1578,13 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;11;12.json</t>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;32;18.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as no decision has been made about the movie to show on Friday.
+MSG: The decision has been recorded as no movie was selected in the meeting.
 </t>
         </is>
       </c>
@@ -1600,13 +1600,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;04;05.json</t>
+          <t>./Warehouse/DF/run4o_08_13_2025 at_17;57;52.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was reached on what movie to show on Friday.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1622,19 +1622,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;02;42.json</t>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;48;54.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has resulted in no selection being made.
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1644,13 +1644,13 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;31;41.json</t>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;43;40.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about the movie to be shown on Friday was not made.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1666,19 +1666,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;17;31.json</t>
+          <t>./Warehouse/DF/run4o_08_13_2025 at_18;01;15.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was recorded as "no decision," indicating that the committee did not finalize the movie choice for Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1688,19 +1688,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;33;51.json</t>
+          <t>./Warehouse/DF/run4o_08_13_2025 at_18;18;09.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "Barbie" being selected for Friday's movie.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1710,13 +1710,13 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;30;35.json</t>
+          <t>./Warehouse/DF/run4o_08_11_2025 at_16;11;45.json</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no agreement on a movie for Friday.
+MSG: The decision about which movie to play on Friday has not been made, so I will call the no_decision function.
 </t>
         </is>
       </c>
@@ -1732,13 +1732,13 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;35;52.json</t>
+          <t>./Warehouse/DF/run4o_08_11_2025 at_16;14;32.json</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the conversation, it seems that the committee ended without reaching a definitive decision on what movie to show on Friday. Therefore, I will call the no_decision function.
+MSG: The decision about which movie to show on Friday was not reached, and the no_decision function has been executed accordingly.
 </t>
         </is>
       </c>
@@ -1754,19 +1754,900 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>./Warehouse/DF/run4o_08_13_2025 at_18;00;43.json</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;19;35.json</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The conversation ended without a clear decision on what movie to play on Friday. Therefore, I am calling the no_decision function.
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;38;35.json</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process concluded without an agreement on which movie to show, resulting in no selection being made.
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;35;08.json</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;05;34.json</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie was selected.
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;13;34.json</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision resulted in no movie being selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;07;38.json</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The conversation ended without a clear decision on which movie to show on Friday, so I will not make a selection.
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;36;44.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;50;59.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process concluded without reaching an agreement on a movie for Friday. Therefore, no further action will be taken regarding the acquisition of movie rights.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_04;58;56.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie for Friday has not been made.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_08_13_2025 at_17;59;38.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie was selected in this meeting.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;44;40.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made, and there will be no selection of a movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_08_11_2025 at_16;12;50.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no agreement was reached on the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;34;57.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about the movie to show on Friday was not made.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_08_16_2025 at_14;29;37.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no selection was made regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;40;03.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_08_13_2025 at_18;03;00.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Based on the provided transcript, the committee did not reach a definitive decision regarding the movie to be shown on Friday, thus I am calling the no_decision function.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;01;19.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for both movies.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_08_11_2025 at_16;10;09.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no movie will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_08_16_2025 at_14;28;00.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision about Friday's movie was made.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;37;02.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to acquire has been made, and "Barbie" has been selected.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;37;30.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about what movie to show on Friday was not made during the meeting.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_08_16_2025 at_14;27;10.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights to both movies.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;32;39.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been registered, indicating that there was no agreement on which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;55;03.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday has resulted in no conclusion. Thus, the choice remains undecided.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;23;05.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for the movie "Barbie" has been recorded.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;00;27.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process has concluded without a definitive choice for a movie. The committee has not reached an agreement on what movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;11;12.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie being selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_08_13_2025 at_18;02;12.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;04;05.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;02;42.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie was selected for Friday. If you need any further assistance, feel free to ask!
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;31;41.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_08_13_2025 at_18;12;28.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday was not reached.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_08_16_2025 at_14;29;00.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;17;31.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie was chosen for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;33;51.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_08_11_2025 at_16;08;55.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision and confirmed that no movie was selected.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_05_02_2025 at_05;30;35.json</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has resulted in no agreement.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_08_13_2025 at_18;08;42.json</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The function for no decision has been executed, indicating that no movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;35;52.json</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not reach a decision about which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
           <t>./Warehouse/DF/run4o_discovery_04_28_2025 at_15;51;44.json</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected during the meeting.
-</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no_decision, </t>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: None
+MSG: The decision-making process has concluded without a clear plan for which movie will be shown on Friday, so I will call the no_decision function.
+</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, , no_decision, </t>
         </is>
       </c>
     </row>
